--- a/nc_files/data.xlsx
+++ b/nc_files/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Scripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daoan\OneDrive\Documents\Scripts\nc_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AF98212-C488-490E-96F7-8551F20EC469}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{20B8E420-1CEF-499A-A700-E049833CF83B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{EA5D6050-B128-4F96-A4B2-CE234A31D98F}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2073" uniqueCount="691">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2108" uniqueCount="754">
   <si>
     <t>STT</t>
   </si>
@@ -2094,13 +2094,202 @@
   </si>
   <si>
     <t>104.33 - 19.63</t>
+  </si>
+  <si>
+    <t>Vu Quang</t>
+  </si>
+  <si>
+    <t>Thach Dong</t>
+  </si>
+  <si>
+    <t>Muong Pon 20</t>
+  </si>
+  <si>
+    <t>Sop Lao 18</t>
+  </si>
+  <si>
+    <t>Nam Non 21</t>
+  </si>
+  <si>
+    <t>My Ly 8</t>
+  </si>
+  <si>
+    <t>Mai Son 3</t>
+  </si>
+  <si>
+    <t>Tram dap 575</t>
+  </si>
+  <si>
+    <t>Pac Khai Tai 11</t>
+  </si>
+  <si>
+    <t>My Ly</t>
+  </si>
+  <si>
+    <t>Thuy van Do Luong</t>
+  </si>
+  <si>
+    <t>Quy Chau cu</t>
+  </si>
+  <si>
+    <t>Khi tuong Do Luong</t>
+  </si>
+  <si>
+    <t>Hon Ngu</t>
+  </si>
+  <si>
+    <t>Cua Rao</t>
+  </si>
+  <si>
+    <t>Sop Lap 19</t>
+  </si>
+  <si>
+    <t>Na Nhong 12</t>
+  </si>
+  <si>
+    <t>Lan Xieng 17</t>
+  </si>
+  <si>
+    <t>Tram dap Ho Ho</t>
+  </si>
+  <si>
+    <t>Tram don bien phong</t>
+  </si>
+  <si>
+    <t>Phon Kham 14</t>
+  </si>
+  <si>
+    <t>Hoanh Son</t>
+  </si>
+  <si>
+    <t>Dong Tam</t>
+  </si>
+  <si>
+    <t>Dau moi ngan truoi</t>
+  </si>
+  <si>
+    <t>Ban Giang</t>
+  </si>
+  <si>
+    <t>Huu Khuong 2</t>
+  </si>
+  <si>
+    <t>Pha Bun 6</t>
+  </si>
+  <si>
+    <t>Son Truong</t>
+  </si>
+  <si>
+    <t>Thuy dien Chau Thang</t>
+  </si>
+  <si>
+    <t>Giang</t>
+  </si>
+  <si>
+    <t>Huu Khuong</t>
+  </si>
+  <si>
+    <t>Mai Son</t>
+  </si>
+  <si>
+    <t>Tha Lang</t>
+  </si>
+  <si>
+    <t>Pha Bun</t>
+  </si>
+  <si>
+    <t>Xop Chao</t>
+  </si>
+  <si>
+    <t>Huoi Co</t>
+  </si>
+  <si>
+    <t>Tham Tham</t>
+  </si>
+  <si>
+    <t>Keo Nam</t>
+  </si>
+  <si>
+    <t>Na Loi</t>
+  </si>
+  <si>
+    <t>Keng Du</t>
+  </si>
+  <si>
+    <t>Dap Ban Ve</t>
+  </si>
+  <si>
+    <t>Tham Xay</t>
+  </si>
+  <si>
+    <t>Pac Khai Tai</t>
+  </si>
+  <si>
+    <t>Na Nhong</t>
+  </si>
+  <si>
+    <t>Ban Ban</t>
+  </si>
+  <si>
+    <t>Phon Kham</t>
+  </si>
+  <si>
+    <t>Na Kham Peng</t>
+  </si>
+  <si>
+    <t>Tha Lin</t>
+  </si>
+  <si>
+    <t>Lan Xieng</t>
+  </si>
+  <si>
+    <t>Sop lao</t>
+  </si>
+  <si>
+    <t>Sop lap</t>
+  </si>
+  <si>
+    <t>Muong Pon</t>
+  </si>
+  <si>
+    <t>Nam Non</t>
+  </si>
+  <si>
+    <t>Muong Duong</t>
+  </si>
+  <si>
+    <t>Pha Tec</t>
+  </si>
+  <si>
+    <t>Dong Kun</t>
+  </si>
+  <si>
+    <t>Pha Vet</t>
+  </si>
+  <si>
+    <t>Ban Mone</t>
+  </si>
+  <si>
+    <t>Ban Keo Bon</t>
+  </si>
+  <si>
+    <t>Ban Phon Than</t>
+  </si>
+  <si>
+    <t>Phu Hin</t>
+  </si>
+  <si>
+    <t>Na Muong</t>
+  </si>
+  <si>
+    <t>Hua hou</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2157,6 +2346,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -2326,7 +2521,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2384,6 +2579,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -27103,6 +27304,7 @@
     <mergeCell ref="C267:C268"/>
     <mergeCell ref="I523:I524"/>
     <mergeCell ref="A303:A304"/>
+    <mergeCell ref="A407:A408"/>
     <mergeCell ref="D65:D66"/>
     <mergeCell ref="G481:G482"/>
     <mergeCell ref="G127:G128"/>
@@ -27123,13 +27325,18 @@
     <mergeCell ref="E471:E472"/>
     <mergeCell ref="G331:G332"/>
     <mergeCell ref="D243:D244"/>
-    <mergeCell ref="A407:A408"/>
-    <mergeCell ref="A371:A372"/>
-    <mergeCell ref="E485:E486"/>
-    <mergeCell ref="H231:H232"/>
-    <mergeCell ref="C211:C212"/>
-    <mergeCell ref="G283:G284"/>
-    <mergeCell ref="I427:I428"/>
+    <mergeCell ref="D465:D466"/>
+    <mergeCell ref="D177:D178"/>
+    <mergeCell ref="G437:G438"/>
+    <mergeCell ref="E459:E460"/>
+    <mergeCell ref="I365:I366"/>
+    <mergeCell ref="G305:G306"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="I509:I510"/>
+    <mergeCell ref="I241:I242"/>
+    <mergeCell ref="I317:I318"/>
+    <mergeCell ref="I187:I188"/>
+    <mergeCell ref="I119:I120"/>
     <mergeCell ref="C537:C538"/>
     <mergeCell ref="C213:C214"/>
     <mergeCell ref="D501:D502"/>
@@ -27156,15 +27363,6 @@
     <mergeCell ref="H321:H322"/>
     <mergeCell ref="E199:E200"/>
     <mergeCell ref="H503:H504"/>
-    <mergeCell ref="D465:D466"/>
-    <mergeCell ref="D177:D178"/>
-    <mergeCell ref="G437:G438"/>
-    <mergeCell ref="E459:E460"/>
-    <mergeCell ref="I365:I366"/>
-    <mergeCell ref="G305:G306"/>
-    <mergeCell ref="A211:A212"/>
-    <mergeCell ref="F179:F180"/>
-    <mergeCell ref="F127:F128"/>
     <mergeCell ref="H71:H72"/>
     <mergeCell ref="C523:C524"/>
     <mergeCell ref="H369:H370"/>
@@ -27183,12 +27381,20 @@
     <mergeCell ref="D229:D230"/>
     <mergeCell ref="F511:F512"/>
     <mergeCell ref="H497:H498"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="I509:I510"/>
     <mergeCell ref="A469:A470"/>
     <mergeCell ref="A181:A182"/>
     <mergeCell ref="A305:A306"/>
     <mergeCell ref="D117:D118"/>
+    <mergeCell ref="C167:C168"/>
+    <mergeCell ref="D129:D130"/>
+    <mergeCell ref="A509:A510"/>
+    <mergeCell ref="G191:G192"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="D189:D190"/>
+    <mergeCell ref="G489:G490"/>
+    <mergeCell ref="A371:A372"/>
+    <mergeCell ref="E485:E486"/>
+    <mergeCell ref="H231:H232"/>
     <mergeCell ref="E45:E46"/>
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="F497:F498"/>
@@ -27207,33 +27413,20 @@
     <mergeCell ref="F129:F130"/>
     <mergeCell ref="C393:C394"/>
     <mergeCell ref="D459:D460"/>
-    <mergeCell ref="I241:I242"/>
     <mergeCell ref="A63:A64"/>
     <mergeCell ref="E445:E446"/>
     <mergeCell ref="H229:H230"/>
     <mergeCell ref="A89:A90"/>
     <mergeCell ref="E391:E392"/>
-    <mergeCell ref="I317:I318"/>
     <mergeCell ref="C173:C174"/>
     <mergeCell ref="D293:D294"/>
-    <mergeCell ref="I187:I188"/>
     <mergeCell ref="A441:A442"/>
     <mergeCell ref="E431:E432"/>
     <mergeCell ref="G231:G232"/>
     <mergeCell ref="D431:D432"/>
-    <mergeCell ref="I119:I120"/>
     <mergeCell ref="H287:H288"/>
     <mergeCell ref="H501:H502"/>
     <mergeCell ref="H429:H430"/>
-    <mergeCell ref="C167:C168"/>
-    <mergeCell ref="D129:D130"/>
-    <mergeCell ref="A509:A510"/>
-    <mergeCell ref="G191:G192"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="D189:D190"/>
-    <mergeCell ref="G489:G490"/>
-    <mergeCell ref="E381:E382"/>
-    <mergeCell ref="H161:H162"/>
     <mergeCell ref="D123:D124"/>
     <mergeCell ref="E405:E406"/>
     <mergeCell ref="G217:G218"/>
@@ -27249,6 +27442,20 @@
     <mergeCell ref="I399:I400"/>
     <mergeCell ref="I101:I102"/>
     <mergeCell ref="G219:G220"/>
+    <mergeCell ref="I293:I294"/>
+    <mergeCell ref="I371:I372"/>
+    <mergeCell ref="I299:I300"/>
+    <mergeCell ref="H183:H184"/>
+    <mergeCell ref="D401:D402"/>
+    <mergeCell ref="I289:I290"/>
+    <mergeCell ref="I271:I272"/>
+    <mergeCell ref="I301:I302"/>
+    <mergeCell ref="I221:I222"/>
+    <mergeCell ref="E251:E252"/>
+    <mergeCell ref="F179:F180"/>
+    <mergeCell ref="F127:F128"/>
+    <mergeCell ref="C211:C212"/>
+    <mergeCell ref="G283:G284"/>
     <mergeCell ref="D89:D90"/>
     <mergeCell ref="D419:D420"/>
     <mergeCell ref="D391:D392"/>
@@ -27279,6 +27486,24 @@
     <mergeCell ref="I501:I502"/>
     <mergeCell ref="D201:D202"/>
     <mergeCell ref="D503:D504"/>
+    <mergeCell ref="I525:I526"/>
+    <mergeCell ref="I379:I380"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="F303:F304"/>
+    <mergeCell ref="C495:C496"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="E127:E128"/>
+    <mergeCell ref="I389:I390"/>
+    <mergeCell ref="G507:G508"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="D181:D182"/>
+    <mergeCell ref="F507:F508"/>
+    <mergeCell ref="H107:H108"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="D521:D522"/>
+    <mergeCell ref="G435:G436"/>
+    <mergeCell ref="G407:G408"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="G263:G264"/>
     <mergeCell ref="C501:C502"/>
@@ -27295,22 +27520,9 @@
     <mergeCell ref="H423:H424"/>
     <mergeCell ref="F191:F192"/>
     <mergeCell ref="A313:A314"/>
-    <mergeCell ref="I265:I266"/>
-    <mergeCell ref="E355:E356"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="D335:D336"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="A483:A484"/>
-    <mergeCell ref="I311:I312"/>
-    <mergeCell ref="C225:C226"/>
-    <mergeCell ref="H159:H160"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="E465:E466"/>
-    <mergeCell ref="A265:A266"/>
-    <mergeCell ref="D287:D288"/>
-    <mergeCell ref="H283:H284"/>
-    <mergeCell ref="F285:F286"/>
-    <mergeCell ref="A333:A334"/>
+    <mergeCell ref="G119:G120"/>
+    <mergeCell ref="D363:D364"/>
+    <mergeCell ref="C101:C102"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="G237:G238"/>
     <mergeCell ref="I185:I186"/>
@@ -27327,22 +27539,29 @@
     <mergeCell ref="D207:D208"/>
     <mergeCell ref="I183:I184"/>
     <mergeCell ref="F121:F122"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="F303:F304"/>
-    <mergeCell ref="C495:C496"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="E127:E128"/>
-    <mergeCell ref="I389:I390"/>
-    <mergeCell ref="G507:G508"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="D181:D182"/>
-    <mergeCell ref="F507:F508"/>
-    <mergeCell ref="H107:H108"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="D521:D522"/>
-    <mergeCell ref="G435:G436"/>
-    <mergeCell ref="G407:G408"/>
+    <mergeCell ref="I265:I266"/>
+    <mergeCell ref="E355:E356"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="D335:D336"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="I311:I312"/>
+    <mergeCell ref="C225:C226"/>
+    <mergeCell ref="H159:H160"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="E465:E466"/>
+    <mergeCell ref="D287:D288"/>
+    <mergeCell ref="H283:H284"/>
+    <mergeCell ref="F285:F286"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="H83:H84"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="D225:D226"/>
+    <mergeCell ref="A201:A202"/>
+    <mergeCell ref="G529:G530"/>
+    <mergeCell ref="F505:F506"/>
+    <mergeCell ref="F143:F144"/>
+    <mergeCell ref="G125:G126"/>
+    <mergeCell ref="C205:C206"/>
     <mergeCell ref="D27:D28"/>
     <mergeCell ref="G409:G410"/>
     <mergeCell ref="F379:F380"/>
@@ -27365,20 +27584,6 @@
     <mergeCell ref="C419:C420"/>
     <mergeCell ref="D139:D140"/>
     <mergeCell ref="I163:I164"/>
-    <mergeCell ref="F479:F480"/>
-    <mergeCell ref="G517:G518"/>
-    <mergeCell ref="I325:I326"/>
-    <mergeCell ref="C365:C366"/>
-    <mergeCell ref="E217:E218"/>
-    <mergeCell ref="E525:E526"/>
-    <mergeCell ref="C527:C528"/>
-    <mergeCell ref="G119:G120"/>
-    <mergeCell ref="D363:D364"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="I525:I526"/>
-    <mergeCell ref="I379:I380"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="F299:F300"/>
     <mergeCell ref="C147:C148"/>
     <mergeCell ref="D537:D538"/>
     <mergeCell ref="D513:D514"/>
@@ -27399,17 +27604,18 @@
     <mergeCell ref="H419:H420"/>
     <mergeCell ref="C307:C308"/>
     <mergeCell ref="E291:E292"/>
-    <mergeCell ref="I293:I294"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="H83:H84"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="D225:D226"/>
-    <mergeCell ref="A201:A202"/>
-    <mergeCell ref="G529:G530"/>
-    <mergeCell ref="F505:F506"/>
-    <mergeCell ref="I371:I372"/>
-    <mergeCell ref="I299:I300"/>
-    <mergeCell ref="F143:F144"/>
+    <mergeCell ref="F479:F480"/>
+    <mergeCell ref="G517:G518"/>
+    <mergeCell ref="C365:C366"/>
+    <mergeCell ref="E217:E218"/>
+    <mergeCell ref="E525:E526"/>
+    <mergeCell ref="C527:C528"/>
+    <mergeCell ref="A483:A484"/>
+    <mergeCell ref="A265:A266"/>
+    <mergeCell ref="A333:A334"/>
+    <mergeCell ref="E381:E382"/>
+    <mergeCell ref="H161:H162"/>
+    <mergeCell ref="A211:A212"/>
     <mergeCell ref="C35:C36"/>
     <mergeCell ref="G417:G418"/>
     <mergeCell ref="G145:G146"/>
@@ -27442,10 +27648,6 @@
     <mergeCell ref="F425:F426"/>
     <mergeCell ref="F331:F332"/>
     <mergeCell ref="H219:H220"/>
-    <mergeCell ref="G125:G126"/>
-    <mergeCell ref="C205:C206"/>
-    <mergeCell ref="H183:H184"/>
-    <mergeCell ref="D401:D402"/>
     <mergeCell ref="G533:G534"/>
     <mergeCell ref="E321:E322"/>
     <mergeCell ref="G77:G78"/>
@@ -27471,6 +27673,13 @@
     <mergeCell ref="A377:A378"/>
     <mergeCell ref="E419:E420"/>
     <mergeCell ref="A403:A404"/>
+    <mergeCell ref="G531:G532"/>
+    <mergeCell ref="C285:C286"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="C531:C532"/>
+    <mergeCell ref="G525:G526"/>
+    <mergeCell ref="C535:C536"/>
+    <mergeCell ref="G163:G164"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F297:F298"/>
     <mergeCell ref="A255:A256"/>
@@ -27503,11 +27712,6 @@
     <mergeCell ref="F361:F362"/>
     <mergeCell ref="C159:C160"/>
     <mergeCell ref="E379:E380"/>
-    <mergeCell ref="G531:G532"/>
-    <mergeCell ref="I289:I290"/>
-    <mergeCell ref="C285:C286"/>
-    <mergeCell ref="I271:I272"/>
-    <mergeCell ref="I455:I456"/>
     <mergeCell ref="H515:H516"/>
     <mergeCell ref="H477:H478"/>
     <mergeCell ref="C471:C472"/>
@@ -27536,6 +27740,10 @@
     <mergeCell ref="F171:F172"/>
     <mergeCell ref="D249:D250"/>
     <mergeCell ref="C273:C274"/>
+    <mergeCell ref="H373:H374"/>
+    <mergeCell ref="H301:H302"/>
+    <mergeCell ref="A163:A164"/>
+    <mergeCell ref="F73:F74"/>
     <mergeCell ref="E31:E32"/>
     <mergeCell ref="A445:A446"/>
     <mergeCell ref="C265:C266"/>
@@ -27568,8 +27776,6 @@
     <mergeCell ref="E393:E394"/>
     <mergeCell ref="E105:E106"/>
     <mergeCell ref="I83:I84"/>
-    <mergeCell ref="H373:H374"/>
-    <mergeCell ref="H301:H302"/>
     <mergeCell ref="C39:C40"/>
     <mergeCell ref="G63:G64"/>
     <mergeCell ref="I65:I66"/>
@@ -27601,9 +27807,7 @@
     <mergeCell ref="F483:F484"/>
     <mergeCell ref="H531:H532"/>
     <mergeCell ref="F527:F528"/>
-    <mergeCell ref="A163:A164"/>
     <mergeCell ref="C161:C162"/>
-    <mergeCell ref="F99:F100"/>
     <mergeCell ref="F71:F72"/>
     <mergeCell ref="G287:G288"/>
     <mergeCell ref="H377:H378"/>
@@ -27625,12 +27829,17 @@
     <mergeCell ref="D375:D376"/>
     <mergeCell ref="C165:C166"/>
     <mergeCell ref="H207:H208"/>
-    <mergeCell ref="C531:C532"/>
     <mergeCell ref="F389:F390"/>
     <mergeCell ref="C363:C364"/>
     <mergeCell ref="F101:F102"/>
     <mergeCell ref="C87:C88"/>
     <mergeCell ref="E303:E304"/>
+    <mergeCell ref="G257:G258"/>
+    <mergeCell ref="G203:G204"/>
+    <mergeCell ref="D115:D116"/>
+    <mergeCell ref="H103:H104"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="D313:D314"/>
     <mergeCell ref="C25:C26"/>
     <mergeCell ref="G455:G456"/>
     <mergeCell ref="D173:D174"/>
@@ -27727,17 +27936,6 @@
     <mergeCell ref="F415:F416"/>
     <mergeCell ref="G379:G380"/>
     <mergeCell ref="C449:C450"/>
-    <mergeCell ref="G525:G526"/>
-    <mergeCell ref="I301:I302"/>
-    <mergeCell ref="G257:G258"/>
-    <mergeCell ref="G203:G204"/>
-    <mergeCell ref="D115:D116"/>
-    <mergeCell ref="H103:H104"/>
-    <mergeCell ref="C535:C536"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="I221:I222"/>
-    <mergeCell ref="D313:D314"/>
-    <mergeCell ref="G163:G164"/>
     <mergeCell ref="D67:D68"/>
     <mergeCell ref="H331:H332"/>
     <mergeCell ref="F163:F164"/>
@@ -27758,6 +27956,18 @@
     <mergeCell ref="F311:F312"/>
     <mergeCell ref="C467:C468"/>
     <mergeCell ref="H329:H330"/>
+    <mergeCell ref="H243:H244"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="H241:H242"/>
+    <mergeCell ref="D121:D122"/>
+    <mergeCell ref="G511:G512"/>
+    <mergeCell ref="E125:E126"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="H357:H358"/>
     <mergeCell ref="C529:C530"/>
     <mergeCell ref="G69:G70"/>
     <mergeCell ref="E71:E72"/>
@@ -27790,8 +28000,9 @@
     <mergeCell ref="F477:F478"/>
     <mergeCell ref="C191:C192"/>
     <mergeCell ref="A323:A324"/>
-    <mergeCell ref="H243:H244"/>
-    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="I511:I512"/>
+    <mergeCell ref="A387:A388"/>
+    <mergeCell ref="C385:C386"/>
     <mergeCell ref="A195:A196"/>
     <mergeCell ref="E301:E302"/>
     <mergeCell ref="D273:D274"/>
@@ -27821,11 +28032,9 @@
     <mergeCell ref="F275:F276"/>
     <mergeCell ref="G265:G266"/>
     <mergeCell ref="H485:H486"/>
-    <mergeCell ref="E429:E430"/>
-    <mergeCell ref="G281:G282"/>
-    <mergeCell ref="H273:H274"/>
-    <mergeCell ref="H241:H242"/>
-    <mergeCell ref="D121:D122"/>
+    <mergeCell ref="D151:D152"/>
+    <mergeCell ref="D221:D222"/>
+    <mergeCell ref="F157:F158"/>
     <mergeCell ref="A97:A98"/>
     <mergeCell ref="H521:H522"/>
     <mergeCell ref="I375:I376"/>
@@ -27855,21 +28064,6 @@
     <mergeCell ref="H467:H468"/>
     <mergeCell ref="F455:F456"/>
     <mergeCell ref="H395:H396"/>
-    <mergeCell ref="I511:I512"/>
-    <mergeCell ref="A387:A388"/>
-    <mergeCell ref="C385:C386"/>
-    <mergeCell ref="A285:A286"/>
-    <mergeCell ref="G503:G504"/>
-    <mergeCell ref="C485:C486"/>
-    <mergeCell ref="F503:F504"/>
-    <mergeCell ref="H271:H272"/>
-    <mergeCell ref="H239:H240"/>
-    <mergeCell ref="C427:C428"/>
-    <mergeCell ref="F165:F166"/>
-    <mergeCell ref="C151:C152"/>
-    <mergeCell ref="G357:G358"/>
-    <mergeCell ref="I297:I298"/>
-    <mergeCell ref="E359:E360"/>
     <mergeCell ref="I357:I358"/>
     <mergeCell ref="I285:I286"/>
     <mergeCell ref="F463:F464"/>
@@ -27887,6 +28081,13 @@
     <mergeCell ref="A375:A376"/>
     <mergeCell ref="H303:H304"/>
     <mergeCell ref="G421:G422"/>
+    <mergeCell ref="E429:E430"/>
+    <mergeCell ref="G281:G282"/>
+    <mergeCell ref="H273:H274"/>
+    <mergeCell ref="I455:I456"/>
+    <mergeCell ref="F299:F300"/>
+    <mergeCell ref="I325:I326"/>
+    <mergeCell ref="I427:I428"/>
     <mergeCell ref="H537:H538"/>
     <mergeCell ref="G521:G522"/>
     <mergeCell ref="E189:E190"/>
@@ -27919,16 +28120,6 @@
     <mergeCell ref="H441:H442"/>
     <mergeCell ref="C277:C278"/>
     <mergeCell ref="A433:A434"/>
-    <mergeCell ref="G511:G512"/>
-    <mergeCell ref="D151:D152"/>
-    <mergeCell ref="D221:D222"/>
-    <mergeCell ref="E125:E126"/>
-    <mergeCell ref="F157:F158"/>
-    <mergeCell ref="A213:A214"/>
-    <mergeCell ref="G463:G464"/>
-    <mergeCell ref="D411:D412"/>
-    <mergeCell ref="C149:C150"/>
-    <mergeCell ref="A259:A260"/>
     <mergeCell ref="E77:E78"/>
     <mergeCell ref="D529:D530"/>
     <mergeCell ref="C79:C80"/>
@@ -27951,6 +28142,16 @@
     <mergeCell ref="A155:A156"/>
     <mergeCell ref="H267:H268"/>
     <mergeCell ref="F269:F270"/>
+    <mergeCell ref="A529:A530"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="I331:I332"/>
+    <mergeCell ref="E225:E226"/>
+    <mergeCell ref="E489:E490"/>
+    <mergeCell ref="A285:A286"/>
+    <mergeCell ref="G503:G504"/>
+    <mergeCell ref="C485:C486"/>
+    <mergeCell ref="F503:F504"/>
+    <mergeCell ref="H271:H272"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A207:A208"/>
     <mergeCell ref="H405:H406"/>
@@ -27983,12 +28184,9 @@
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="D219:D220"/>
-    <mergeCell ref="A529:A530"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="I331:I332"/>
-    <mergeCell ref="E225:E226"/>
-    <mergeCell ref="E489:E490"/>
-    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="I367:I368"/>
+    <mergeCell ref="I283:I284"/>
     <mergeCell ref="A479:A480"/>
     <mergeCell ref="I295:I296"/>
     <mergeCell ref="G509:G510"/>
@@ -28018,20 +28216,6 @@
     <mergeCell ref="D11:D12"/>
     <mergeCell ref="F253:F254"/>
     <mergeCell ref="A473:A474"/>
-    <mergeCell ref="E463:E464"/>
-    <mergeCell ref="G323:G324"/>
-    <mergeCell ref="C245:C246"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="A399:A400"/>
-    <mergeCell ref="C369:C370"/>
-    <mergeCell ref="F315:F316"/>
-    <mergeCell ref="H307:H308"/>
-    <mergeCell ref="C187:C188"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="I149:I150"/>
-    <mergeCell ref="G275:G276"/>
-    <mergeCell ref="D179:D180"/>
     <mergeCell ref="D127:D128"/>
     <mergeCell ref="A311:A312"/>
     <mergeCell ref="H455:H456"/>
@@ -28043,10 +28227,27 @@
     <mergeCell ref="G167:G168"/>
     <mergeCell ref="H165:H166"/>
     <mergeCell ref="G391:G392"/>
-    <mergeCell ref="D59:D60"/>
     <mergeCell ref="I255:I256"/>
     <mergeCell ref="I129:I130"/>
-    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="I103:I104"/>
+    <mergeCell ref="F223:F224"/>
+    <mergeCell ref="F445:F446"/>
+    <mergeCell ref="C415:C416"/>
+    <mergeCell ref="I217:I218"/>
+    <mergeCell ref="E287:E288"/>
+    <mergeCell ref="G323:G324"/>
+    <mergeCell ref="C245:C246"/>
+    <mergeCell ref="A213:A214"/>
+    <mergeCell ref="D411:D412"/>
+    <mergeCell ref="C149:C150"/>
+    <mergeCell ref="A259:A260"/>
+    <mergeCell ref="H239:H240"/>
+    <mergeCell ref="C427:C428"/>
+    <mergeCell ref="F165:F166"/>
+    <mergeCell ref="C151:C152"/>
+    <mergeCell ref="G357:G358"/>
+    <mergeCell ref="I297:I298"/>
+    <mergeCell ref="E359:E360"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="D505:D506"/>
     <mergeCell ref="A481:A482"/>
@@ -28079,19 +28280,6 @@
     <mergeCell ref="D453:D454"/>
     <mergeCell ref="A243:A244"/>
     <mergeCell ref="H451:H452"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="I103:I104"/>
-    <mergeCell ref="F223:F224"/>
-    <mergeCell ref="F445:F446"/>
-    <mergeCell ref="C415:C416"/>
-    <mergeCell ref="E519:E520"/>
-    <mergeCell ref="E335:E336"/>
-    <mergeCell ref="H193:H194"/>
-    <mergeCell ref="G195:G196"/>
-    <mergeCell ref="E281:E282"/>
-    <mergeCell ref="A263:A264"/>
-    <mergeCell ref="C241:C242"/>
-    <mergeCell ref="H179:H180"/>
     <mergeCell ref="C67:C68"/>
     <mergeCell ref="E497:E498"/>
     <mergeCell ref="G301:G302"/>
@@ -28111,8 +28299,19 @@
     <mergeCell ref="F399:F400"/>
     <mergeCell ref="F525:F526"/>
     <mergeCell ref="G401:G402"/>
-    <mergeCell ref="A521:A522"/>
     <mergeCell ref="E289:E290"/>
+    <mergeCell ref="I115:I116"/>
+    <mergeCell ref="C347:C348"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="C369:C370"/>
+    <mergeCell ref="F315:F316"/>
+    <mergeCell ref="H307:H308"/>
+    <mergeCell ref="C187:C188"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="I149:I150"/>
+    <mergeCell ref="G275:G276"/>
+    <mergeCell ref="D179:D180"/>
     <mergeCell ref="E17:E18"/>
     <mergeCell ref="F321:F322"/>
     <mergeCell ref="C297:C298"/>
@@ -28145,28 +28344,6 @@
     <mergeCell ref="G479:G480"/>
     <mergeCell ref="I535:I536"/>
     <mergeCell ref="F281:F282"/>
-    <mergeCell ref="I115:I116"/>
-    <mergeCell ref="C347:C348"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="I217:I218"/>
-    <mergeCell ref="E287:E288"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="I367:I368"/>
-    <mergeCell ref="I283:I284"/>
-    <mergeCell ref="H357:H358"/>
-    <mergeCell ref="E251:E252"/>
-    <mergeCell ref="A373:A374"/>
-    <mergeCell ref="E153:E154"/>
-    <mergeCell ref="A123:A124"/>
-    <mergeCell ref="C433:C434"/>
-    <mergeCell ref="E237:E238"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="C263:C264"/>
-    <mergeCell ref="G173:G174"/>
-    <mergeCell ref="E129:E130"/>
-    <mergeCell ref="E113:E114"/>
-    <mergeCell ref="E211:E212"/>
-    <mergeCell ref="E183:E184"/>
     <mergeCell ref="I273:I274"/>
     <mergeCell ref="A531:A532"/>
     <mergeCell ref="F485:F486"/>
@@ -28175,6 +28352,30 @@
     <mergeCell ref="D423:D424"/>
     <mergeCell ref="A401:A402"/>
     <mergeCell ref="E313:E314"/>
+    <mergeCell ref="C525:C526"/>
+    <mergeCell ref="C341:C342"/>
+    <mergeCell ref="A451:A452"/>
+    <mergeCell ref="D373:D374"/>
+    <mergeCell ref="C193:C194"/>
+    <mergeCell ref="E511:E512"/>
+    <mergeCell ref="D205:D206"/>
+    <mergeCell ref="I179:I180"/>
+    <mergeCell ref="A217:A218"/>
+    <mergeCell ref="H513:H514"/>
+    <mergeCell ref="E207:E208"/>
+    <mergeCell ref="A525:A526"/>
+    <mergeCell ref="E519:E520"/>
+    <mergeCell ref="E335:E336"/>
+    <mergeCell ref="H193:H194"/>
+    <mergeCell ref="G195:G196"/>
+    <mergeCell ref="E281:E282"/>
+    <mergeCell ref="A263:A264"/>
+    <mergeCell ref="C241:C242"/>
+    <mergeCell ref="H179:H180"/>
+    <mergeCell ref="A521:A522"/>
+    <mergeCell ref="A399:A400"/>
+    <mergeCell ref="E463:E464"/>
+    <mergeCell ref="G463:G464"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="D285:D286"/>
     <mergeCell ref="D253:D254"/>
@@ -28399,21 +28600,6 @@
     <mergeCell ref="G73:G74"/>
     <mergeCell ref="I197:I198"/>
     <mergeCell ref="G271:G272"/>
-    <mergeCell ref="C525:C526"/>
-    <mergeCell ref="C341:C342"/>
-    <mergeCell ref="A451:A452"/>
-    <mergeCell ref="D373:D374"/>
-    <mergeCell ref="C193:C194"/>
-    <mergeCell ref="H85:H86"/>
-    <mergeCell ref="E177:E178"/>
-    <mergeCell ref="E243:E244"/>
-    <mergeCell ref="E215:E216"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="D325:D326"/>
-    <mergeCell ref="A151:A152"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="H263:H264"/>
-    <mergeCell ref="E229:E230"/>
     <mergeCell ref="H509:H510"/>
     <mergeCell ref="C503:C504"/>
     <mergeCell ref="D441:D442"/>
@@ -28431,6 +28617,21 @@
     <mergeCell ref="E249:E250"/>
     <mergeCell ref="A75:A76"/>
     <mergeCell ref="H109:H110"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="D163:D164"/>
+    <mergeCell ref="D135:D136"/>
+    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="A373:A374"/>
+    <mergeCell ref="E153:E154"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="C433:C434"/>
+    <mergeCell ref="E237:E238"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="C263:C264"/>
+    <mergeCell ref="G173:G174"/>
+    <mergeCell ref="E129:E130"/>
+    <mergeCell ref="E113:E114"/>
     <mergeCell ref="E539:E540"/>
     <mergeCell ref="G475:G476"/>
     <mergeCell ref="D345:D346"/>
@@ -28463,9 +28664,6 @@
     <mergeCell ref="F255:F256"/>
     <mergeCell ref="G487:G488"/>
     <mergeCell ref="D377:D378"/>
-    <mergeCell ref="E511:E512"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="A127:A128"/>
     <mergeCell ref="F535:F536"/>
     <mergeCell ref="F83:F84"/>
     <mergeCell ref="A301:A302"/>
@@ -28497,6 +28695,7 @@
     <mergeCell ref="A437:A438"/>
     <mergeCell ref="E395:E396"/>
     <mergeCell ref="E83:E84"/>
+    <mergeCell ref="I329:I330"/>
     <mergeCell ref="E55:E56"/>
     <mergeCell ref="G497:G498"/>
     <mergeCell ref="I269:I270"/>
@@ -28591,15 +28790,8 @@
     <mergeCell ref="A105:A106"/>
     <mergeCell ref="E383:E384"/>
     <mergeCell ref="D407:D408"/>
-    <mergeCell ref="I329:I330"/>
     <mergeCell ref="G101:G102"/>
     <mergeCell ref="E103:E104"/>
-    <mergeCell ref="D163:D164"/>
-    <mergeCell ref="D135:D136"/>
-    <mergeCell ref="D111:D112"/>
-    <mergeCell ref="D205:D206"/>
-    <mergeCell ref="I179:I180"/>
-    <mergeCell ref="I87:I88"/>
     <mergeCell ref="G505:G506"/>
     <mergeCell ref="F207:F208"/>
     <mergeCell ref="C99:C100"/>
@@ -28627,6 +28819,11 @@
     <mergeCell ref="A227:A228"/>
     <mergeCell ref="F249:F250"/>
     <mergeCell ref="D149:D150"/>
+    <mergeCell ref="H439:H440"/>
+    <mergeCell ref="C387:C388"/>
+    <mergeCell ref="F139:F140"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="E177:E178"/>
     <mergeCell ref="H535:H536"/>
     <mergeCell ref="F195:F196"/>
     <mergeCell ref="F167:F168"/>
@@ -28659,8 +28856,8 @@
     <mergeCell ref="G259:G260"/>
     <mergeCell ref="G207:G208"/>
     <mergeCell ref="D155:D156"/>
-    <mergeCell ref="H439:H440"/>
-    <mergeCell ref="C387:C388"/>
+    <mergeCell ref="C517:C518"/>
+    <mergeCell ref="I369:I370"/>
     <mergeCell ref="E535:E536"/>
     <mergeCell ref="F305:F306"/>
     <mergeCell ref="G179:G180"/>
@@ -28691,8 +28888,8 @@
     <mergeCell ref="D417:D418"/>
     <mergeCell ref="C163:C164"/>
     <mergeCell ref="E297:E298"/>
-    <mergeCell ref="I359:I360"/>
-    <mergeCell ref="F267:F268"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="H309:H310"/>
     <mergeCell ref="A537:A538"/>
     <mergeCell ref="H449:H450"/>
     <mergeCell ref="I69:I70"/>
@@ -28723,17 +28920,6 @@
     <mergeCell ref="I473:I474"/>
     <mergeCell ref="F257:F258"/>
     <mergeCell ref="G161:G162"/>
-    <mergeCell ref="C517:C518"/>
-    <mergeCell ref="I369:I370"/>
-    <mergeCell ref="F139:F140"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="A217:A218"/>
-    <mergeCell ref="H513:H514"/>
-    <mergeCell ref="E207:E208"/>
-    <mergeCell ref="A525:A526"/>
-    <mergeCell ref="I445:I446"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="E409:E410"/>
     <mergeCell ref="C301:C302"/>
     <mergeCell ref="D251:D252"/>
     <mergeCell ref="I287:I288"/>
@@ -28749,6 +28935,23 @@
     <mergeCell ref="A295:A296"/>
     <mergeCell ref="F313:F314"/>
     <mergeCell ref="I75:I76"/>
+    <mergeCell ref="D241:D242"/>
+    <mergeCell ref="G213:G214"/>
+    <mergeCell ref="G303:G304"/>
+    <mergeCell ref="I359:I360"/>
+    <mergeCell ref="F267:F268"/>
+    <mergeCell ref="I87:I88"/>
+    <mergeCell ref="H85:H86"/>
+    <mergeCell ref="E243:E244"/>
+    <mergeCell ref="E215:E216"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="D325:D326"/>
+    <mergeCell ref="A151:A152"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="H263:H264"/>
+    <mergeCell ref="E229:E230"/>
+    <mergeCell ref="E211:E212"/>
+    <mergeCell ref="E183:E184"/>
     <mergeCell ref="F495:F496"/>
     <mergeCell ref="C103:C104"/>
     <mergeCell ref="E509:E510"/>
@@ -28781,8 +28984,6 @@
     <mergeCell ref="F411:F412"/>
     <mergeCell ref="H371:H372"/>
     <mergeCell ref="F123:F124"/>
-    <mergeCell ref="D241:D242"/>
-    <mergeCell ref="G213:G214"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="E75:E76"/>
     <mergeCell ref="I315:I316"/>
@@ -28975,9 +29176,6 @@
     <mergeCell ref="I391:I392"/>
     <mergeCell ref="F499:F500"/>
     <mergeCell ref="H483:H484"/>
-    <mergeCell ref="G303:G304"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="H309:H310"/>
     <mergeCell ref="C487:C488"/>
     <mergeCell ref="H493:H494"/>
     <mergeCell ref="G297:G298"/>
@@ -29007,6 +29205,9 @@
     <mergeCell ref="H139:H140"/>
     <mergeCell ref="C91:C92"/>
     <mergeCell ref="F429:F430"/>
+    <mergeCell ref="I445:I446"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="E409:E410"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -29016,20 +29217,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C269"/>
+  <dimension ref="A1:C304"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A247" workbookViewId="0">
+      <selection activeCell="E267" sqref="E267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>583</v>
       </c>
       <c r="B1">
         <v>105.4</v>
@@ -29040,7 +29241,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>338</v>
       </c>
       <c r="B2">
         <v>104.11</v>
@@ -29051,7 +29252,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>254</v>
       </c>
       <c r="B3">
         <v>104.88</v>
@@ -29062,7 +29263,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>424</v>
       </c>
       <c r="B4">
         <v>105.63</v>
@@ -29073,7 +29274,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>272</v>
       </c>
       <c r="B5">
         <v>105.03</v>
@@ -29084,7 +29285,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>701</v>
       </c>
       <c r="B6">
         <v>105.3</v>
@@ -29095,7 +29296,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>449</v>
       </c>
       <c r="B7">
         <v>105.43</v>
@@ -29106,7 +29307,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>418</v>
       </c>
       <c r="B8">
         <v>105.49</v>
@@ -29117,7 +29318,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>249</v>
       </c>
       <c r="B9">
         <v>105.63</v>
@@ -29128,7 +29329,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>112</v>
       </c>
       <c r="B10">
         <v>105.74</v>
@@ -29139,7 +29340,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>416</v>
       </c>
       <c r="B11">
         <v>105.56</v>
@@ -29150,7 +29351,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>413</v>
       </c>
       <c r="B12">
         <v>105.61</v>
@@ -29161,7 +29362,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>422</v>
       </c>
       <c r="B13">
         <v>105.37</v>
@@ -29172,7 +29373,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>408</v>
       </c>
       <c r="B14">
         <v>105.7</v>
@@ -29183,7 +29384,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>702</v>
       </c>
       <c r="B15">
         <v>105.16</v>
@@ -29205,7 +29406,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>703</v>
       </c>
       <c r="B17">
         <v>105.3</v>
@@ -29216,7 +29417,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>304</v>
       </c>
       <c r="B18">
         <v>105.43</v>
@@ -29227,7 +29428,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>293</v>
       </c>
       <c r="B19">
         <v>105.72</v>
@@ -29238,7 +29439,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>64</v>
+        <v>603</v>
       </c>
       <c r="B20">
         <v>105.64</v>
@@ -29249,7 +29450,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>68</v>
+        <v>431</v>
       </c>
       <c r="B21">
         <v>104.47</v>
@@ -29260,7 +29461,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>70</v>
+        <v>704</v>
       </c>
       <c r="B22">
         <v>105.78</v>
@@ -29271,7 +29472,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>74</v>
+        <v>691</v>
       </c>
       <c r="B23">
         <v>105.5</v>
@@ -29282,7 +29483,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>77</v>
+        <v>525</v>
       </c>
       <c r="B24">
         <v>105.9</v>
@@ -29293,7 +29494,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>79</v>
+        <v>317</v>
       </c>
       <c r="B25">
         <v>104.66</v>
@@ -29304,7 +29505,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>82</v>
+        <v>705</v>
       </c>
       <c r="B26">
         <v>104.48</v>
@@ -29315,7 +29516,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>84</v>
+        <v>692</v>
       </c>
       <c r="B27">
         <v>105.9</v>
@@ -29326,7 +29527,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>86</v>
+        <v>389</v>
       </c>
       <c r="B28">
         <v>105.42</v>
@@ -29337,7 +29538,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>90</v>
+        <v>359</v>
       </c>
       <c r="B29">
         <v>104.9</v>
@@ -29348,7 +29549,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>94</v>
+        <v>706</v>
       </c>
       <c r="B30">
         <v>103.6</v>
@@ -29359,7 +29560,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>96</v>
+        <v>707</v>
       </c>
       <c r="B31">
         <v>103.67</v>
@@ -29370,7 +29571,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>98</v>
+        <v>708</v>
       </c>
       <c r="B32">
         <v>103.87</v>
@@ -29381,7 +29582,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>100</v>
+        <v>709</v>
       </c>
       <c r="B33">
         <v>105.82</v>
@@ -29392,7 +29593,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>102</v>
+        <v>693</v>
       </c>
       <c r="B34">
         <v>103.87</v>
@@ -29403,7 +29604,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>104</v>
+        <v>710</v>
       </c>
       <c r="B35">
         <v>105.37</v>
@@ -29722,7 +29923,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>193</v>
+        <v>711</v>
       </c>
       <c r="B64">
         <v>103.53</v>
@@ -29733,7 +29934,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>195</v>
+        <v>475</v>
       </c>
       <c r="B65">
         <v>106.1</v>
@@ -29744,7 +29945,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>197</v>
+        <v>712</v>
       </c>
       <c r="B66">
         <v>106.45</v>
@@ -29755,7 +29956,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>201</v>
+        <v>713</v>
       </c>
       <c r="B67">
         <v>106.02</v>
@@ -29766,7 +29967,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>204</v>
+        <v>714</v>
       </c>
       <c r="B68">
         <v>105.48</v>
@@ -29777,7 +29978,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>206</v>
+        <v>364</v>
       </c>
       <c r="B69">
         <v>105.18</v>
@@ -29788,7 +29989,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>210</v>
+        <v>715</v>
       </c>
       <c r="B70">
         <v>105.68</v>
@@ -29799,7 +30000,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>212</v>
+        <v>694</v>
       </c>
       <c r="B71">
         <v>103.72</v>
@@ -29810,7 +30011,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>214</v>
+        <v>695</v>
       </c>
       <c r="B72">
         <v>103.4</v>
@@ -29821,7 +30022,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>216</v>
+        <v>716</v>
       </c>
       <c r="B73">
         <v>104.64</v>
@@ -29832,7 +30033,7 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>219</v>
+        <v>696</v>
       </c>
       <c r="B74">
         <v>104.31</v>
@@ -29843,7 +30044,7 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>221</v>
+        <v>697</v>
       </c>
       <c r="B75">
         <v>104.43</v>
@@ -29854,7 +30055,7 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>224</v>
+        <v>717</v>
       </c>
       <c r="B76">
         <v>104.26</v>
@@ -29887,7 +30088,7 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>232</v>
+        <v>698</v>
       </c>
       <c r="B79">
         <v>105.62</v>
@@ -29898,7 +30099,7 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>234</v>
+        <v>699</v>
       </c>
       <c r="B80">
         <v>103.8</v>
@@ -30712,7 +30913,7 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>383</v>
+        <v>718</v>
       </c>
       <c r="B154">
         <v>105.44</v>
@@ -30833,7 +31034,7 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>406</v>
+        <v>719</v>
       </c>
       <c r="B165">
         <v>105</v>
@@ -31119,7 +31320,7 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191" t="s">
-        <v>458</v>
+        <v>537</v>
       </c>
       <c r="B191">
         <v>106.28</v>
@@ -31130,7 +31331,7 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
-        <v>462</v>
+        <v>651</v>
       </c>
       <c r="B192">
         <v>106.02</v>
@@ -31350,7 +31551,7 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212" t="s">
-        <v>523</v>
+        <v>720</v>
       </c>
       <c r="B212">
         <v>105.76</v>
@@ -31977,7 +32178,7 @@
     </row>
     <row r="269" spans="1:3">
       <c r="A269" t="s">
-        <v>689</v>
+        <v>700</v>
       </c>
       <c r="B269">
         <v>104.33</v>
@@ -31986,7 +32187,393 @@
         <v>19.63</v>
       </c>
     </row>
+    <row r="270" spans="1:3" ht="15.75">
+      <c r="A270" s="25" t="s">
+        <v>721</v>
+      </c>
+      <c r="B270" s="26">
+        <v>104.64362</v>
+      </c>
+      <c r="C270" s="26">
+        <v>19.532468999999999</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" ht="15.75">
+      <c r="A271" s="25" t="s">
+        <v>722</v>
+      </c>
+      <c r="B271" s="26">
+        <v>104.425236</v>
+      </c>
+      <c r="C271" s="26">
+        <v>19.596004000000001</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" ht="15.75">
+      <c r="A272" s="25" t="s">
+        <v>700</v>
+      </c>
+      <c r="B272" s="26">
+        <v>104.673267</v>
+      </c>
+      <c r="C272" s="26">
+        <v>19.453858</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" ht="15.75">
+      <c r="A273" s="25" t="s">
+        <v>723</v>
+      </c>
+      <c r="B273" s="26">
+        <v>104.413651</v>
+      </c>
+      <c r="C273" s="26">
+        <v>19.426288</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" ht="15.75">
+      <c r="A274" s="25" t="s">
+        <v>724</v>
+      </c>
+      <c r="B274" s="26">
+        <v>104.255036</v>
+      </c>
+      <c r="C274" s="26">
+        <v>19.544848999999999</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" ht="15.75">
+      <c r="A275" s="25" t="s">
+        <v>725</v>
+      </c>
+      <c r="B275" s="26">
+        <v>104.479308</v>
+      </c>
+      <c r="C275" s="26">
+        <v>19.413720000000001</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" ht="15.75">
+      <c r="A276" s="25" t="s">
+        <v>726</v>
+      </c>
+      <c r="B276" s="26">
+        <v>104.673267</v>
+      </c>
+      <c r="C276" s="26">
+        <v>19.453858</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" ht="15.75">
+      <c r="A277" s="25" t="s">
+        <v>727</v>
+      </c>
+      <c r="B277" s="26">
+        <v>104.619168</v>
+      </c>
+      <c r="C277" s="26">
+        <v>19.593920000000001</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" ht="15.75">
+      <c r="A278" s="25" t="s">
+        <v>728</v>
+      </c>
+      <c r="B278" s="26">
+        <v>104.19977299999999</v>
+      </c>
+      <c r="C278" s="26">
+        <v>19.661781000000001</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" ht="15.75">
+      <c r="A279" s="25" t="s">
+        <v>334</v>
+      </c>
+      <c r="B279" s="26">
+        <v>104.338323</v>
+      </c>
+      <c r="C279" s="26">
+        <v>19.531939999999999</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" ht="15.75">
+      <c r="A280" s="25" t="s">
+        <v>729</v>
+      </c>
+      <c r="B280" s="26">
+        <v>104.159447</v>
+      </c>
+      <c r="C280" s="26">
+        <v>19.52833</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" ht="15.75">
+      <c r="A281" s="25" t="s">
+        <v>730</v>
+      </c>
+      <c r="B281" s="26">
+        <v>104.105003</v>
+      </c>
+      <c r="C281" s="26">
+        <v>19.624169999999999</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" ht="15.75">
+      <c r="A282" s="25" t="s">
+        <v>731</v>
+      </c>
+      <c r="B282" s="26">
+        <v>104.482331</v>
+      </c>
+      <c r="C282" s="26">
+        <v>19.344726999999999</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" ht="15.75">
+      <c r="A283" s="25" t="s">
+        <v>732</v>
+      </c>
+      <c r="B283" s="26">
+        <v>103.97595099999999</v>
+      </c>
+      <c r="C283" s="26">
+        <v>19.504328000000001</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" ht="15.75">
+      <c r="A284" s="25" t="s">
+        <v>733</v>
+      </c>
+      <c r="B284" s="26">
+        <v>103.813671</v>
+      </c>
+      <c r="C284" s="26">
+        <v>19.600076999999999</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" ht="15.75">
+      <c r="A285" s="25" t="s">
+        <v>734</v>
+      </c>
+      <c r="B285" s="26">
+        <v>103.668941</v>
+      </c>
+      <c r="C285" s="26">
+        <v>19.588488000000002</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" ht="15.75">
+      <c r="A286" s="25" t="s">
+        <v>735</v>
+      </c>
+      <c r="B286" s="26">
+        <v>103.552072</v>
+      </c>
+      <c r="C286" s="26">
+        <v>19.631375999999999</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" ht="15.75">
+      <c r="A287" s="25" t="s">
+        <v>736</v>
+      </c>
+      <c r="B287" s="26">
+        <v>103.53729199999999</v>
+      </c>
+      <c r="C287" s="26">
+        <v>19.541332000000001</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" ht="15.75">
+      <c r="A288" s="25" t="s">
+        <v>737</v>
+      </c>
+      <c r="B288" s="26">
+        <v>103.416589</v>
+      </c>
+      <c r="C288" s="26">
+        <v>19.557379000000001</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" ht="15.75">
+      <c r="A289" s="25" t="s">
+        <v>738</v>
+      </c>
+      <c r="B289" s="26">
+        <v>103.454635</v>
+      </c>
+      <c r="C289" s="26">
+        <v>19.426538000000001</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" ht="15.75">
+      <c r="A290" s="25" t="s">
+        <v>739</v>
+      </c>
+      <c r="B290" s="26">
+        <v>103.873271</v>
+      </c>
+      <c r="C290" s="26">
+        <v>19.963097000000001</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" ht="15.75">
+      <c r="A291" s="25" t="s">
+        <v>740</v>
+      </c>
+      <c r="B291" s="26">
+        <v>103.7193</v>
+      </c>
+      <c r="C291" s="26">
+        <v>20.031918999999998</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" ht="15.75">
+      <c r="A292" s="25" t="s">
+        <v>741</v>
+      </c>
+      <c r="B292" s="26">
+        <v>103.608728</v>
+      </c>
+      <c r="C292" s="26">
+        <v>20.048401999999999</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" ht="15.75">
+      <c r="A293" s="25" t="s">
+        <v>742</v>
+      </c>
+      <c r="B293" s="26">
+        <v>103.873589</v>
+      </c>
+      <c r="C293" s="26">
+        <v>20.209641999999999</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" ht="15.75">
+      <c r="A294" s="25" t="s">
+        <v>743</v>
+      </c>
+      <c r="B294" s="26">
+        <v>103.40506600000001</v>
+      </c>
+      <c r="C294" s="26">
+        <v>20.231000999999999</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" ht="15.75">
+      <c r="A295" s="25" t="s">
+        <v>744</v>
+      </c>
+      <c r="B295" s="26">
+        <v>104.34366300000001</v>
+      </c>
+      <c r="C295" s="26">
+        <v>19.759623999999999</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" ht="15.75">
+      <c r="A296" s="25" t="s">
+        <v>745</v>
+      </c>
+      <c r="B296" s="26">
+        <v>103.339697</v>
+      </c>
+      <c r="C296" s="26">
+        <v>19.449190000000002</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" ht="15.75">
+      <c r="A297" s="25" t="s">
+        <v>746</v>
+      </c>
+      <c r="B297" s="26">
+        <v>104.066509</v>
+      </c>
+      <c r="C297" s="26">
+        <v>19.726721999999999</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" ht="15.75">
+      <c r="A298" s="25" t="s">
+        <v>747</v>
+      </c>
+      <c r="B298" s="26">
+        <v>103.99616</v>
+      </c>
+      <c r="C298" s="26">
+        <v>19.971399999999999</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" ht="15.75">
+      <c r="A299" s="25" t="s">
+        <v>748</v>
+      </c>
+      <c r="B299" s="26">
+        <v>103.97045</v>
+      </c>
+      <c r="C299" s="26">
+        <v>19.858499999999999</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" ht="15.75">
+      <c r="A300" s="25" t="s">
+        <v>749</v>
+      </c>
+      <c r="B300" s="26">
+        <v>103.91045</v>
+      </c>
+      <c r="C300" s="26">
+        <v>19.715499999999999</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" ht="15.75">
+      <c r="A301" s="25" t="s">
+        <v>750</v>
+      </c>
+      <c r="B301" s="26">
+        <v>103.72989</v>
+      </c>
+      <c r="C301" s="26">
+        <v>19.649791</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" ht="15.75">
+      <c r="A302" s="25" t="s">
+        <v>751</v>
+      </c>
+      <c r="B302" s="26">
+        <v>103.786501</v>
+      </c>
+      <c r="C302" s="26">
+        <v>19.807639999999999</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" ht="15.75">
+      <c r="A303" s="25" t="s">
+        <v>752</v>
+      </c>
+      <c r="B303" s="26">
+        <v>103.876333</v>
+      </c>
+      <c r="C303" s="26">
+        <v>20.086100099999999</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" ht="15.75">
+      <c r="A304" s="25" t="s">
+        <v>753</v>
+      </c>
+      <c r="B304" s="26">
+        <v>103.726078</v>
+      </c>
+      <c r="C304" s="26">
+        <v>20.181128000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>